--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_13.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_13.xlsx
@@ -483,158 +483,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1027173913043478</v>
+        <v>0.323076923076923</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'F#:min', 'B:min/F#']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.74424, 46.109591)]</t>
+          <t>[(143.58, 148.16)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(23.5, 26.48)]</t>
+          <t>[(18.12, 24.54)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1182170542635659</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.146, 9.474)]</t>
+          <t>[(24.42, 32.62), (45.72, 49.9)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
+          <t>[(27.52, 35.76), (15.6, 24.08)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>isophonics_150</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G', 'E:min', 'A']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G', 'E:min', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[(5.038752, 9.647913)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[(50.135784, 55.151295)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1076555023923445</v>
+        <v>0.1174242424242424</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'A:min7']]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'E:min', 'E:min7/b3']]</t>
+          <t>[['G', 'C/5', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.703061, 26.24492)]</t>
+          <t>[(37.936167, 41.77907)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(79.347701, 82.55331)]</t>
+          <t>[(20.870746, 26.837029)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -643,81 +639,77 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1182170542635659</v>
+        <v>0.3170289855072464</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
+          <t>[['C', 'G/3', 'C', 'G/3', 'C'], ['F', 'F:min', 'C', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['E', 'B', 'E', 'B', 'E'], ['A', 'A:min/b3', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.879478, 37.291269)]</t>
+          <t>[(130.148, 132.075), (38.588, 46.22)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[(89.257527, 110.178707), (23.370907, 35.305963)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07146401985111663</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'A:min/C'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'E:min'], ['D', 'A:7', 'D']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.9, 30.28), (68.82, 77.92)]</t>
+          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(71.679925, 76.022057), (69.52047, 74.942329)]</t>
+          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -725,199 +717,203 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>isophonics_99</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.106312292358804</v>
+        <v>0.09519230769230769</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['A', 'F#:min', 'D']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['E', 'C#:min', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.04, 28.66)]</t>
+          <t>[(25.908231, 32.885827)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.58, 19.46)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[(23.574625, 26.08238)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07334525939177103</v>
+        <v>0.1940559440559441</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:7', 'E', 'A/3']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[(5.88, 11.46)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[(45.712, 51.648)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.175</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
+          <t>[(0.36, 2.44)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.922018, 7.703786)]</t>
+          <t>[(40.12, 47.88)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2982456140350877</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(44.300045, 55.503673)]</t>
+          <t>[(4.76, 118.78)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[(7.54, 122.26)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06764705882352942</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['E', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['E', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
+          <t>[(22.125076, 36.625937)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[(122.976598, 134.098957)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -926,81 +922,77 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0881782945736434</v>
+        <v>0.2724358974358975</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min', 'A:min/b3']]</t>
+          <t>[['A', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.883378, 17.038208)]</t>
+          <t>[(68.150589, 83.20873)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.94, 45.2)]</t>
+          <t>[(18.978, 26.66)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.323076923076923</v>
+        <v>0.08684863523573201</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:7', 'E:maj/B', 'E:min/B']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['Ab:7', 'Db', 'Db:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[(4.54, 12.1)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
+          <t>[(36.66, 38.43)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1008,118 +1000,122 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.09528535980148883</v>
+        <v>0.1136044880785414</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(62.932448, 72.777709)]</t>
+          <t>[(17.36, 19.54), (17.94, 20.12)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(61.8, 67.84)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(3.1, 5.91), (7.05, 9.89)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06654411764705882</v>
+        <v>0.05375773651635721</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C', 'C', 'C', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(22.89, 26.74)]</t>
+          <t>[(70.38, 83.28)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(54.1, 60.92)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[(48.25, 53.91)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(7.54, 26.3)]</t>
+          <t>[(21.78, 25.3)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(58.02, 67.16)]</t>
+          <t>[(58.32, 59.68)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_13.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3322259136212624</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(143.58, 148.16)]</t>
+          <t>[['E', 'A', 'E', 'B'], ['A', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:43.076000', '0:00:51.380000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.284457', '0:00:22.098788'), ('0:00:02.512756', '0:00:13.890534')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09250474383301707</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.42, 32.62), (45.72, 49.9)]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(27.52, 35.76), (15.6, 24.08)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_270</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A']]</t>
-        </is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_42</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1767241379310345</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.038752, 9.647913)]</t>
+          <t>[['C:7', 'F', 'F'], ['F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(50.135784, 55.151295)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:04.320000', '0:01:08.270000'), ('0:01:26.640000', '0:01:30.600000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:41.770000', '0:00:53.980000'), ('0:01:23.050000', '0:01:37.440000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1174242424242424</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'C']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.936167, 41.77907)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(20.870746, 26.837029)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3170289855072464</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C'], ['F', 'F:min', 'C', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1152173913043478</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'B', 'E'], ['A', 'A:min/b3', 'E', 'B', 'E']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(130.148, 132.075), (38.588, 46.22)]</t>
+          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(89.257527, 110.178707), (23.370907, 35.305963)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:16.800000', '0:00:19.040000'), ('0:00:41.080000', '0:00:43.260000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.510000', '0:00:13.910000'), ('0:00:00.460000', '0:00:03.220000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09519230769230769</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1339285714285714</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A']]</t>
+          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(25.908231, 32.885827)]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.574625, 26.08238)]</t>
+          <t>[('0:00:00.780000', '0:00:24.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1940559440559441</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.54, 122.26)]</t>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:25', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3176470588235294</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(22.125076, 36.625937)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(122.976598, 134.098957)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2724358974358975</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(68.150589, 83.20873)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.978, 26.66)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.54, 12.1)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.66, 38.43)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54), (17.94, 20.12)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.1, 5.91), (7.05, 9.89)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05375773651635721</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(70.38, 83.28)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(48.25, 53.91)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.78, 25.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(58.32, 59.68)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
